--- a/BT3456/Bài tập 4.1.xlsx
+++ b/BT3456/Bài tập 4.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/hiendh_hcmuit_edu_vn/Documents/UIT/Giang Day/[NT213] Bao mat Web va Ung dung/BM Web - Ung dung/001. BaiGiang-2022/04 - CSRF, XSS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_F25DC773A252ABDACC10487EC9DB57185ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1CD8CB1-E715-4516-9F92-D6C080C2A832}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B5B5C4-4396-44C8-AEB8-7D120CE79039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1656" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -118,13 +118,25 @@
   </si>
   <si>
     <t>https://www.root-me.org/en/Challenges/Web-Client/CSRF-token-bypass</t>
+  </si>
+  <si>
+    <t>NkI9qe4cdLIO2P7MIsWS8ofD6%27</t>
+  </si>
+  <si>
+    <t>rootme{@NGu1@R_J$_1$_C001}</t>
+  </si>
+  <si>
+    <t>rootme{XSS_D0M_BaSed_InTr0}</t>
+  </si>
+  <si>
+    <t>rootme{Eval_Is_DangER0us}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +163,24 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD0161C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -204,8 +234,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,7 +528,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -505,13 +543,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -546,12 +584,12 @@
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -564,8 +602,8 @@
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
+      <c r="E6" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -582,12 +620,12 @@
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
+      <c r="E7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -600,8 +638,8 @@
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
+      <c r="E8" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="F8" s="5"/>
     </row>

--- a/BT3456/Bài tập 4.1.xlsx
+++ b/BT3456/Bài tập 4.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B5B5C4-4396-44C8-AEB8-7D120CE79039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A81A393-FC2B-4AB7-A527-E34DB5BBFE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1656" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>rootme{Eval_Is_DangER0us}</t>
+  </si>
+  <si>
+    <t>flag=r3fL3ct3D_XsS_fTw</t>
   </si>
 </sst>
 </file>
@@ -237,13 +240,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +531,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -543,13 +546,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -602,7 +605,7 @@
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="5"/>
@@ -620,7 +623,7 @@
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="5"/>
@@ -638,7 +641,7 @@
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="5"/>
@@ -656,8 +659,8 @@
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
+      <c r="E9" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="F9" s="5"/>
     </row>

--- a/BT3456/Bài tập 4.1.xlsx
+++ b/BT3456/Bài tập 4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A81A393-FC2B-4AB7-A527-E34DB5BBFE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAADE11-456B-4F49-B8D7-9053231A12DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1656" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -133,13 +133,16 @@
   </si>
   <si>
     <t>flag=r3fL3ct3D_XsS_fTw</t>
+  </si>
+  <si>
+    <t>E5HKEGyCXQVsYaehaqeJs0AfV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +188,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -221,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -248,6 +257,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +541,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -664,7 +674,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -677,8 +687,8 @@
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
+      <c r="E10" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="5"/>
     </row>

--- a/BT3456/Bài tập 4.1.xlsx
+++ b/BT3456/Bài tập 4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAADE11-456B-4F49-B8D7-9053231A12DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56AA30E-66C7-4E73-8743-5D25E882974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1656" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/BT3456/Bài tập 4.1.xlsx
+++ b/BT3456/Bài tập 4.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56AA30E-66C7-4E73-8743-5D25E882974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4887EC6-44E5-40C0-9E6F-A376CD1D1EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1656" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -136,13 +136,19 @@
   </si>
   <si>
     <t>E5HKEGyCXQVsYaehaqeJs0AfV</t>
+  </si>
+  <si>
+    <t>Csrf_Fr33style-L3v3l1!</t>
+  </si>
+  <si>
+    <t>Byp4ss_CSRF_T0k3n-w1th-XSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +200,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF767676"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -254,10 +266,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +554,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -556,13 +569,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -687,7 +700,7 @@
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="5"/>
@@ -757,8 +770,8 @@
         <v>28</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
+      <c r="E14" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -773,8 +786,8 @@
         <v>30</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
+      <c r="E15" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="F15" s="5"/>
     </row>

--- a/BT3456/Bài tập 4.1.xlsx
+++ b/BT3456/Bài tập 4.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4887EC6-44E5-40C0-9E6F-A376CD1D1EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A92E83-6952-4F6B-A717-A080A824B94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1656" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>VIẾT WRITEUP CHO CÁC BÀI CTF</t>
   </si>
@@ -120,9 +120,6 @@
     <t>https://www.root-me.org/en/Challenges/Web-Client/CSRF-token-bypass</t>
   </si>
   <si>
-    <t>NkI9qe4cdLIO2P7MIsWS8ofD6%27</t>
-  </si>
-  <si>
     <t>rootme{@NGu1@R_J$_1$_C001}</t>
   </si>
   <si>
@@ -142,6 +139,15 @@
   </si>
   <si>
     <t>Byp4ss_CSRF_T0k3n-w1th-XSS</t>
+  </si>
+  <si>
+    <t>NkI9qe4cdLIO2P7MIsWS8ofD6</t>
+  </si>
+  <si>
+    <t>rootme{FilTERS_ByPass_DOm_BASEd_XSS}</t>
+  </si>
+  <si>
+    <t>qa26f3ugb5tqv7o0mbvtv414u8</t>
   </si>
 </sst>
 </file>
@@ -554,7 +560,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -611,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -629,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -647,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -665,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -683,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -701,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -719,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -737,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -771,7 +777,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -787,7 +793,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="5"/>
     </row>

--- a/BT3456/Bài tập 4.1.xlsx
+++ b/BT3456/Bài tập 4.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A92E83-6952-4F6B-A717-A080A824B94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BE4BA8-DCE5-4C8B-B1EC-79BB0C866BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1656" yWindow="1848" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/BT3456/Bài tập 4.1.xlsx
+++ b/BT3456/Bài tập 4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BE4BA8-DCE5-4C8B-B1EC-79BB0C866BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61018D19-FBD5-44AE-BD37-0C68DCAB36DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>rootme{Eval_Is_DangER0us}</t>
   </si>
   <si>
-    <t>flag=r3fL3ct3D_XsS_fTw</t>
-  </si>
-  <si>
     <t>E5HKEGyCXQVsYaehaqeJs0AfV</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>qa26f3ugb5tqv7o0mbvtv414u8</t>
+  </si>
+  <si>
+    <t>r3fL3ct3D_XsS_fTw</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="5"/>
     </row>
@@ -689,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -707,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -725,7 +725,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -743,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="5"/>
     </row>

--- a/BT3456/Bài tập 4.1.xlsx
+++ b/BT3456/Bài tập 4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NT213_Web-and-Application-Security_Excercise\BT3456\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61018D19-FBD5-44AE-BD37-0C68DCAB36DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDBF7F2-C267-4249-930E-105D5E847CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -742,7 +742,7 @@
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="5"/>
